--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T14:59:46+00:00</t>
+    <t>2025-01-22T15:51:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T15:51:58+00:00</t>
+    <t>2025-01-22T16:10:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-22T16:10:55+00:00</t>
+    <t>2025-01-23T09:02:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T09:02:53+00:00</t>
+    <t>2025-01-23T18:05:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-23T18:05:37+00:00</t>
+    <t>2025-01-24T10:49:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T10:49:55+00:00</t>
+    <t>2025-01-24T11:25:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:25:40+00:00</t>
+    <t>2025-01-24T11:45:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T11:45:47+00:00</t>
+    <t>2025-01-24T13:24:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:24:43+00:00</t>
+    <t>2025-01-24T13:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T13:58:14+00:00</t>
+    <t>2025-01-24T14:57:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T14:57:39+00:00</t>
+    <t>2025-01-24T15:04:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T15:04:45+00:00</t>
+    <t>2025-01-24T16:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:06:18+00:00</t>
+    <t>2025-01-24T16:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:30:15+00:00</t>
+    <t>2025-01-24T16:46:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
+++ b/cp-questionnaire-usecontext/ig/StructureDefinition-ror-healthcareservice-contact.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-24T16:46:59+00:00</t>
+    <t>2025-01-24T17:25:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
